--- a/斐波那契数列计算测试程序.xlsx
+++ b/斐波那契数列计算测试程序.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD555F18-0AC4-4ACC-844A-8309BE8D4B73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED30644C-D0EC-4BA7-91FC-503ED31309D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16020" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>首地址</t>
   </si>
@@ -40,9 +40,6 @@
     <t>0x02</t>
   </si>
   <si>
-    <t xml:space="preserve"> #31H</t>
-  </si>
-  <si>
     <t>4031H</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>0x08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #30H</t>
   </si>
   <si>
     <t>2030H</t>
@@ -124,13 +118,7 @@
     <t>F0H</t>
   </si>
   <si>
-    <t xml:space="preserve"> #32H</t>
-  </si>
-  <si>
     <t>4032H</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #22H</t>
   </si>
   <si>
     <t>E022H</t>
@@ -142,13 +130,26 @@
     <t>0x22</t>
   </si>
   <si>
-    <t>#08H</t>
-  </si>
-  <si>
     <t>D008H</t>
   </si>
   <si>
     <t>80H</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30H</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>31H</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3733,7 +3734,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFA0715-6B28-4E9F-B83A-6F43616B1F92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3787,7 +3788,7 @@
                   <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F568B6-A656-4230-9CF7-D6DD36D99584}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3841,7 +3842,7 @@
                   <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D27415E-4EC4-4698-94EF-2AC5DF147998}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3895,7 +3896,7 @@
                   <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8A97EE-12A2-4456-90D4-F5B2DF0B5EBC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3949,7 +3950,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5240F8F4-A20E-46CE-907C-C2C87A8CB1F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4003,7 +4004,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5173D3-925E-45D7-8D9C-61673233251D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4057,7 +4058,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A04A433-542A-4F31-AEB6-ACCBD6DE9098}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4111,7 +4112,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D9A294-EE60-430B-9B75-78FBF55F1506}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4165,7 +4166,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579A301F-8F3A-46CB-BAA4-C3E84330B896}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4219,7 +4220,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0245B114-9322-486F-A07E-6E0E4FF932C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4273,7 +4274,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A786913-91EC-41DD-B26E-385459A1966B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4327,7 +4328,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09281E1-DEDD-4F62-84ED-21DD3C625986}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4381,7 +4382,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA09E81-901B-434F-827D-1D93A959786E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4435,7 +4436,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F033FB-0F5A-4B25-8445-A72D69D07C2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4489,7 +4490,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2340623C-7C9D-403D-9EDE-6F9ED052F0F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4543,7 +4544,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F245AAA-94A9-465F-B364-6BBE336CA6FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4597,7 +4598,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58513F09-7572-425B-9CA6-21DACBF3D035}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4651,7 +4652,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE553516-AADB-46CB-AD20-142CCE99B476}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4705,7 +4706,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFF494F-7E09-45C1-9415-5D94D8A9DD04}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4759,7 +4760,7 @@
                   <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2799118-F120-451A-AE2C-E0FAD00AC2F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4813,7 +4814,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45541DEB-F209-45D5-A672-C0FE2C97B11C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4867,7 +4868,7 @@
                   <a14:compatExt spid="_x0000_s1129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54F0F44-1F89-479C-8955-F32CCCFF7256}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4921,7 +4922,7 @@
                   <a14:compatExt spid="_x0000_s1128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786C5C66-3211-4111-8CDD-E414D6C1C640}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4975,7 +4976,7 @@
                   <a14:compatExt spid="_x0000_s1127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0CC81C-35B6-44C8-A4A4-BFDB9DBC703C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5029,7 +5030,7 @@
                   <a14:compatExt spid="_x0000_s1126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E530AF4C-3DC4-41D3-8E55-EA6A509D4BB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5083,7 +5084,7 @@
                   <a14:compatExt spid="_x0000_s1125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2AAA11-5AEA-4D32-90AB-B368A79325F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5137,7 +5138,7 @@
                   <a14:compatExt spid="_x0000_s1124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AF2A01-F16C-4FAE-8DC2-63A84C197376}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5191,7 +5192,7 @@
                   <a14:compatExt spid="_x0000_s1123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A90B99-7993-4D9A-93B1-2B5EE11E014E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5245,7 +5246,7 @@
                   <a14:compatExt spid="_x0000_s1122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFEBA3E-1E43-4903-8CA3-C6234364FC01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5299,7 +5300,7 @@
                   <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD5EDAB-4B5B-4EDD-BD5F-F983EFC8D6B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5353,7 +5354,7 @@
                   <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E99C004-6BD9-4BFF-9D54-F63851772162}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5407,7 +5408,7 @@
                   <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D93D95-2D32-4D66-B54D-5EFD9E03C4FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5461,7 +5462,7 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA6F234-9DA9-4CD8-8F3C-D3F7DE2742CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5515,7 +5516,7 @@
                   <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6234637D-CD87-4370-81A7-78CDB4B6B09D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5569,7 +5570,7 @@
                   <a14:compatExt spid="_x0000_s1116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90102C0D-F233-437D-92F4-7F31029535A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5623,7 +5624,7 @@
                   <a14:compatExt spid="_x0000_s1115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57254F2-A91E-4C06-A980-261B5B8AC7BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5677,7 +5678,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7902A296-1B21-41E7-9FFD-34AD64356AC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5731,7 +5732,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6996F77-1A46-4503-A640-C2767D0DC93E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5785,7 +5786,7 @@
                   <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0759E36F-D7E4-40C5-964C-9B56CE6F403F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5839,7 +5840,7 @@
                   <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C625E8-BDE2-4025-AB13-B00E4AAC5C0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5893,7 +5894,7 @@
                   <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14BAC35-7FD3-42B8-94AE-3202E4950CC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5947,7 +5948,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF55668-F1F6-4504-8F6A-CEE542786684}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6244,15 +6245,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C22"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6263,221 +6264,205 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
+    <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
+    <row r="11" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
+    <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
+    <row r="13" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
+    <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
+    <row r="15" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8049,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Equation.DSMT4" shapeId="1108" r:id="rId75">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8088,8 +8073,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1107" r:id="rId77">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1107" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8108,13 +8093,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1107" r:id="rId77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1106" r:id="rId79">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
+        <oleObject progId="Equation.DSMT4" shapeId="1107" r:id="rId76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1106" r:id="rId77">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8133,13 +8118,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1106" r:id="rId79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1105" r:id="rId80">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1106" r:id="rId77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1105" r:id="rId78">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8158,13 +8143,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1105" r:id="rId80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1104" r:id="rId81">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1105" r:id="rId78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1104" r:id="rId79">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8183,13 +8168,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1104" r:id="rId81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1103" r:id="rId83">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId84">
+        <oleObject progId="Equation.DSMT4" shapeId="1104" r:id="rId79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1103" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8208,13 +8193,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1103" r:id="rId83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1102" r:id="rId85">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1103" r:id="rId80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1102" r:id="rId81">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8233,13 +8218,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1102" r:id="rId85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1101" r:id="rId86">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1102" r:id="rId81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1101" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8258,13 +8243,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1101" r:id="rId86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1100" r:id="rId88">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1101" r:id="rId82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1100" r:id="rId83">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8283,13 +8268,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1100" r:id="rId88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1099" r:id="rId89">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId90">
+        <oleObject progId="Equation.DSMT4" shapeId="1100" r:id="rId83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1099" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8308,13 +8293,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1099" r:id="rId89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1098" r:id="rId91">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1099" r:id="rId84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1098" r:id="rId85">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8333,13 +8318,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1098" r:id="rId91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1097" r:id="rId92">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1098" r:id="rId85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1097" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8358,13 +8343,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1097" r:id="rId92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1096" r:id="rId93">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1097" r:id="rId86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1096" r:id="rId87">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8383,13 +8368,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1096" r:id="rId93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1095" r:id="rId94">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1096" r:id="rId87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1095" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8408,13 +8393,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1095" r:id="rId94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1094" r:id="rId95">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1095" r:id="rId88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1094" r:id="rId89">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8433,13 +8418,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1094" r:id="rId95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1093" r:id="rId96">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
+        <oleObject progId="Equation.DSMT4" shapeId="1094" r:id="rId89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1093" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8458,13 +8443,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1093" r:id="rId96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1092" r:id="rId97">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1093" r:id="rId90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1092" r:id="rId91">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8483,13 +8468,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1092" r:id="rId97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1091" r:id="rId98">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+        <oleObject progId="Equation.DSMT4" shapeId="1092" r:id="rId91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1091" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8508,13 +8493,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1091" r:id="rId98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1090" r:id="rId100">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1091" r:id="rId92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1090" r:id="rId93">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8533,13 +8518,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1090" r:id="rId100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1089" r:id="rId101">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId102">
+        <oleObject progId="Equation.DSMT4" shapeId="1090" r:id="rId93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1089" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId30">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8558,13 +8543,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1089" r:id="rId101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1088" r:id="rId103">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId104">
+        <oleObject progId="Equation.DSMT4" shapeId="1089" r:id="rId94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1088" r:id="rId95">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId32">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8583,13 +8568,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1088" r:id="rId103"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1129" r:id="rId105">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
+        <oleObject progId="Equation.DSMT4" shapeId="1088" r:id="rId95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1129" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8608,13 +8593,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1129" r:id="rId105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1128" r:id="rId106">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1129" r:id="rId96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1128" r:id="rId97">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8633,13 +8618,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1128" r:id="rId106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1127" r:id="rId107">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
+        <oleObject progId="Equation.DSMT4" shapeId="1128" r:id="rId97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1127" r:id="rId98">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8658,13 +8643,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1127" r:id="rId107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1126" r:id="rId108">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1127" r:id="rId98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1126" r:id="rId99">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8683,13 +8668,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1126" r:id="rId108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1125" r:id="rId109">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1126" r:id="rId99"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1125" r:id="rId100">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8708,13 +8693,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1125" r:id="rId109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1124" r:id="rId110">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId84">
+        <oleObject progId="Equation.DSMT4" shapeId="1125" r:id="rId100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1124" r:id="rId101">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8733,13 +8718,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1124" r:id="rId110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1123" r:id="rId111">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1124" r:id="rId101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1123" r:id="rId102">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8758,13 +8743,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1123" r:id="rId111"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1122" r:id="rId112">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1123" r:id="rId102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1122" r:id="rId103">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8783,13 +8768,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1122" r:id="rId112"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1121" r:id="rId113">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1122" r:id="rId103"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1121" r:id="rId104">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8808,13 +8793,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1121" r:id="rId113"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1120" r:id="rId114">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId90">
+        <oleObject progId="Equation.DSMT4" shapeId="1121" r:id="rId104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1120" r:id="rId105">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8833,13 +8818,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1120" r:id="rId114"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1119" r:id="rId115">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1120" r:id="rId105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1119" r:id="rId106">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8858,13 +8843,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1119" r:id="rId115"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1118" r:id="rId116">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1119" r:id="rId106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1118" r:id="rId107">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8883,13 +8868,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1118" r:id="rId116"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1117" r:id="rId117">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1118" r:id="rId107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1117" r:id="rId108">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8908,13 +8893,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1117" r:id="rId117"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1116" r:id="rId118">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Equation.DSMT4" shapeId="1117" r:id="rId108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1116" r:id="rId109">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8933,13 +8918,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1116" r:id="rId118"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1115" r:id="rId119">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1116" r:id="rId109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1115" r:id="rId110">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8958,13 +8943,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1115" r:id="rId119"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1114" r:id="rId120">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
+        <oleObject progId="Equation.DSMT4" shapeId="1115" r:id="rId110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1114" r:id="rId111">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8983,13 +8968,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1114" r:id="rId120"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1113" r:id="rId121">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Equation.DSMT4" shapeId="1114" r:id="rId111"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1113" r:id="rId112">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9008,13 +8993,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1113" r:id="rId121"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1112" r:id="rId122">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+        <oleObject progId="Equation.DSMT4" shapeId="1113" r:id="rId112"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1112" r:id="rId113">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9033,13 +9018,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1112" r:id="rId122"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1111" r:id="rId123">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Equation.DSMT4" shapeId="1112" r:id="rId113"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1111" r:id="rId114">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9058,13 +9043,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1111" r:id="rId123"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1110" r:id="rId124">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId102">
+        <oleObject progId="Equation.DSMT4" shapeId="1111" r:id="rId114"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1110" r:id="rId115">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId30">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9083,13 +9068,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1110" r:id="rId124"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1109" r:id="rId125">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId104">
+        <oleObject progId="Equation.DSMT4" shapeId="1110" r:id="rId115"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1109" r:id="rId116">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId32">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9108,7 +9093,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1109" r:id="rId125"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1109" r:id="rId116"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
